--- a/documents/機能一覧_world Map_改訂4(上甲).xlsx
+++ b/documents/機能一覧_world Map_改訂4(上甲).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA1E4DF-F865-4820-A94F-D61590576D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF582154-9457-481E-B0B7-3934D91FE366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="210" windowWidth="10815" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9675" yWindow="0" windowWidth="10815" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>概要のあいまい検索</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログアウト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -280,25 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ノート画像、タグ、概要を閲覧することができる。また、ノートの編集、削除も可能。</t>
-    <rPh sb="9" eb="11">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーがキーワードを入力して検索する。</t>
     <rPh sb="11" eb="13">
       <t>ニュウリョク</t>
@@ -440,46 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索内容にあったノート画像、タグ、概要、ニックネームを表示する（１ページに２０件）。ノート画像をクリックしたらノートの閲覧、タグごとに絞り込んで表示、ノートをダウンロード、お気に入り登録、「詳細」ボタンを押して、ノート詳細画面へ移ること、それぞれ可能。また概要欄に記載されているニックネームをクリックすると、そのユーザーのノート一覧が表示される。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ノート管理システム</t>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
@@ -487,104 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入り登録したノート画像の閲覧ができる。このお気に入り一覧では、タグごとに絞り込んで表示、お気に入り登録したノートをダウンロード、お気に入り一覧から「詳細」ボタンを押してノート詳細画面へ移ること、それぞれ可能。</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入り登録したノート画像、タグ、概要の閲覧、ノートのダウンロード、お気に入り登録の解除が可能。また、「こちらもおすすめ」欄にて、お気に入りの少ないノート等をランダム掲載する。お気に入りの少ないノートをおすすめ欄に表示させる理由は、ユーザーに色んなノートを見てほしいため。</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カイジョ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ケイサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>舟見玲奈</t>
     <rPh sb="0" eb="4">
       <t>フナミレナ</t>
@@ -593,8 +432,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ユーザー登録しているユーザがニックネームとパスワード入力することでログインできる。（「新規登録」、「パスワード忘れた方」リンク付き。）
-</t>
+      <t>ユーザー自身が最近アップロードしたノートの一覧と、最近「お気に入り」登録をしたノートの一覧をそれぞれ3個程度表示する。</t>
     </r>
     <r>
       <rPr>
@@ -605,53 +443,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ログインするとマイページに飛ぶ。
-入力されていない・パスワードが違うとき、エラーメッセージ表示。</t>
-    </r>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ユーザー登録は必須。パスワードとニックネームと秘密の質問に対しての回答をユーザーが登録する。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>パスワードは確認用で2回入力。
-ニックネームが使用されている・2つのパスワードが違うとき、入力されていないとき、エラーメッセージ表示。</t>
+      <t>（アップロードしたノートや「お気に入り」登録したノートが0件の場合、”まだ登録されているノートがありません”と表示。）</t>
     </r>
     <r>
       <rPr>
@@ -663,55 +455,61 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-上記のエラーがないとき、確認ダイアログ表示。</t>
-    </r>
-    <rPh sb="23" eb="25">
-      <t>ヒミツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
+また、マイページ内で、アップロード面面、ノート一覧画面、お気に入り一覧画面、ログアウト画面を表示する仕様となっている。</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="52" eb="55">
-      <t>カクニンヨウ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>カイニュウリョク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
+    <rPh sb="51" eb="52">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="169" eb="171">
       <t>シヨウ</t>
     </rPh>
-    <rPh sb="86" eb="87">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>パスワードを忘れたユーザーのための機能。事前に登録したニックネーム、秘密の質問と、新しいパスワードを入力してもらう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ユーザー登録は必須。パスワードとニックネームと</t>
     </r>
     <r>
       <rPr>
@@ -722,7 +520,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>パスワードは確認用で2回入力。</t>
+      <t>秘密の質問とそれに対しての回答</t>
     </r>
     <r>
       <rPr>
@@ -733,8 +531,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">すべての条件が一致していれば、パスワードが更新され、ログイン画面に戻る。
-</t>
+      <t>をユーザーが登録する。</t>
     </r>
     <r>
       <rPr>
@@ -745,151 +542,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ニックネームと秘密の質問が違う・2つのパスワードが違うとき、エラーメッセージ表示。</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒミツ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヒミツ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ユーザー自身が最近アップロードしたノートの一覧と、最近「お気に入り」登録をしたノートの一覧をそれぞれ3個程度表示する。（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>アップロードしたノートや「お気に入り」登録したノートが0件の場合、”まだ登録されているノートがありません”と表示。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-また、マイページ内で、アップロード面面、ノート一覧画面、お気に入り一覧画面、ログアウト画面を表示する仕様となっている。</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイキン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイキン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>メン</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ノート画像（jpeg、png形式）のアップロードができる。アップロード時に、タグの選択（11個のタグの中から複数選択も可能）、公開か非公開の選択、概要の入力をすべて必須で行ってもらう。
-尚、ノートは画像以外（Excel、Word、メモ）もアップロードできる。ただしその場合、中身が分かるように、ユーザーにスクリーンショットを取ってもらい、それをサムネイルのように表示させる。もしスクリーンショットがない場合、こちらで設定した画像（「No Image」画像）を表示させる。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>アップロードするとマイページに飛ぶ。</t>
+      <t>（秘密の質問はプルダウン3つから選択）</t>
     </r>
     <r>
       <rPr>
@@ -912,85 +565,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ファイルがどちらも登録されていない・概要が入力されていない・タグが選択されていない・公開非公開が選択されていないとき、エラーメッセージ表示。</t>
-    </r>
-    <rPh sb="14" eb="16">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヒッスウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="264" eb="266">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="273" eb="275">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="276" eb="278">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="288" eb="290">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="297" eb="302">
-      <t>コウカイヒコウカイ</t>
-    </rPh>
-    <rPh sb="303" eb="305">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="322" eb="324">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ユーザー自身がアップロードしたノートとタグと概要を一覧表示する。また、このノート一覧画面で、</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>タグごとに絞り込んで表示、</t>
+      <t>パスワードは半角英数字と記号のみ使用可能にし、5文字以上。確認用で2回入力。
+①ニックネームが既に使用されている・②2つのパスワードが違う・③いずれかが入力されていない・④パスワードに使用不可の文字が入力された・⑤パスワードが5文字未満のとき、エラーメッセージ表示。</t>
     </r>
     <r>
       <rPr>
@@ -1001,10 +577,659 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>自身のノートをダウンロード、公開しているノートの総お気に入り数の閲覧、ノート一覧から「編集」ボタンを押してノート編集画面へ移ることがそれぞれ可能。</t>
-    </r>
+      <t xml:space="preserve">
+上記のエラーがないとき、確認ダイアログ表示。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>登録完了後、ログイン画面に遷移し、メッセージ表示。</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="75" eb="80">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="85" eb="89">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <rPh sb="93" eb="97">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="98" eb="101">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>カイニュウリョク</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="161" eb="165">
+      <t>シヨウフカ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="226" eb="231">
+      <t>トウロクカンリョウゴ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>パスワードを忘れたユーザーのための機能。事前に登録したニックネーム、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>秘密の質問とその答え</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、新しいパスワードを入力してもらう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">パスワードは確認用で2回入力。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">すべての条件が一致していれば、パスワードが更新され、ログイン画面に遷移し、メッセージ表示。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①ニックネームと秘密の質問が違う・②2つのパスワードが違う・③パスワードに使用不可の文字が入力された・④パスワードが5文字未満のとき、エラーメッセージ表示。</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="161" eb="165">
+      <t>シヨウフカ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="183" eb="187">
+      <t>モジミマン</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り登録したノート画像、タグ、タイトルの閲覧、ノートのダウンロード、お気に入り登録の解除が可能。また、「こちらもおすすめ」欄にて、お気に入りの少ないノート等をランダム掲載する。お気に入りの少ないノートをおすすめ欄に表示させる理由は、ユーザーに色んなノートを見てほしいため。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ケイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索内容にあったノート画像、タグ、タイトル、ニックネームを表示する（１ページに２０件）。ノート画像をクリックしたらノートの閲覧、タグごとに絞り込んで表示、ノートをダウンロード、お気に入り登録、「詳細」ボタンを押して、ノート詳細画面へ移ること、それぞれ可能。またタイトル欄に記載されているニックネームをクリックすると、そのユーザーのノート一覧が表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録しているユーザがニックネームとパスワード入力することでログインできる。（「新規登録」、「パスワード忘れた方」リンク付き。）
+ログインするとマイページに遷移する。
+①いずれかが入力されていない・②パスワードが違うとき、エラーメッセージ表示。</t>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ノート画像、タグ、タイトルを閲覧することができる。また、ノートの編集、削除も可能。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>編集項目は、ファイル・タイトル・タグ・公開非公開。
+編集を完了ボタンが押され、未入力項目があるとき、エラーメッセージ表示。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>削除ボタンが押されたら、確認ダイアログ表示。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>編集・削除後はノート一覧画面に遷移。</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>ヘンシュウコウモク</t>
+    </rPh>
+    <rPh sb="61" eb="66">
+      <t>コウカイヒコウカイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="81" eb="86">
+      <t>ミニュウリョクコウモク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="130" eb="133">
+      <t>サクジョゴ</t>
+    </rPh>
+    <rPh sb="137" eb="141">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り登録したノート画像の閲覧ができる。このお気に入り一覧では、お気に入り登録したノートをダウンロード、お気に入り一覧から「詳細」ボタンを押してノート詳細画面へ遷移することが、それぞれ可能。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルかニックネームのあいまい検索</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ノート画像（jpeg、png形式）のアップロードができる。アップロード時に、タグの選択（11個のタグの中から複数選択も可能）、公開か非公開の選択、タイトルの入力をすべて必須で行ってもらう。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（タイトルは30文字以内）
+（画像ファイルを選択するとその画像が表示される。）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">尚、ノートは画像以外（.docx、.txt）もアップロードできる。ただしその場合、中身が分かるように、ユーザーにスクリーンショットを取ってもらい、それをサムネイルのように表示させる。もしスクリーンショットがない場合、こちらで設定した画像（「No Image」画像）を設定する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>アップロードするとマイページに遷移する。
+①ファイルがどちらも登録されていない・②タイトルが入力されていない・③タグが選択されていない・④公開非公開が選択されていないとき、エラーメッセージ表示。</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒッスウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="103" eb="107">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="258" eb="260">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="305" eb="307">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="333" eb="335">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="343" eb="348">
+      <t>コウカイヒコウカイ</t>
+    </rPh>
+    <rPh sb="349" eb="351">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="368" eb="370">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー自身がアップロードしたノートとタグとタイトルを一覧表示する。また、このノート一覧画面で、自身のノートをダウンロード、公開しているノートの総お気に入り数の閲覧、ノート一覧から「編集」ボタンを押してノート編集画面へ遷移することがそれぞれ可能。</t>
     <rPh sb="4" eb="6">
       <t>ジシン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1013,7 +1238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,15 +1273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1517,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1540,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I2" s="17"/>
     </row>
@@ -1549,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -1627,7 +1843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="189" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
         <v>2</v>
       </c>
@@ -1643,13 +1859,13 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="135" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
         <v>3</v>
       </c>
@@ -1665,7 +1881,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>17</v>
@@ -1683,11 +1899,11 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>17</v>
@@ -1709,13 +1925,13 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="243" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
         <v>6</v>
       </c>
@@ -1759,7 +1975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="108" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
         <v>8</v>
       </c>
@@ -1775,13 +1991,13 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
         <v>9</v>
       </c>
@@ -1797,13 +2013,13 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="15">
         <v>10</v>
       </c>
@@ -1825,7 +2041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
         <v>11</v>
       </c>
@@ -1841,7 +2057,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>17</v>
@@ -1858,18 +2074,18 @@
         <v>29</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>31</v>
+      <c r="F19" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="81" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <v>13</v>
       </c>
@@ -1881,17 +2097,17 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="108" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <v>14</v>
       </c>
@@ -1903,11 +2119,11 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>17</v>
